--- a/example-output/xslx/ID_cafr2013-statement_of_activities.xlsx
+++ b/example-output/xslx/ID_cafr2013-statement_of_activities.xlsx
@@ -818,7 +818,7 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="22" customHeight="1" x14ac:dyDescent="0"/>
@@ -884,7 +884,7 @@
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="11">
-        <v>435</v>
+        <v>125416</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="22" customHeight="1">
@@ -903,9 +903,7 @@
         <v>14052</v>
       </c>
       <c r="G4" s="12"/>
-      <c r="H4" s="13">
-        <v>48856</v>
-      </c>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="22" customHeight="1">
       <c r="A5" s="5" t="s">
@@ -924,7 +922,7 @@
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="13">
-        <v>38364</v>
+        <v>75462</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="22" customHeight="1">
@@ -968,7 +966,7 @@
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="13">
-        <v>38364</v>
+        <v>839</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="22" customHeight="1">
@@ -980,7 +978,7 @@
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12">
-        <v>294294</v>
+        <v>435</v>
       </c>
       <c r="E9" s="12">
         <v>148663</v>
@@ -990,7 +988,7 @@
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="13">
-        <v>10492</v>
+        <v>49115</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="22" customHeight="1" thickBot="1">
@@ -1332,7 +1330,7 @@
         <v>19769</v>
       </c>
       <c r="D33" s="10">
-        <v>2828808</v>
+        <v>48856</v>
       </c>
       <c r="E33" s="10">
         <v>1774495</v>
@@ -1344,7 +1342,7 @@
         <v>-2696184</v>
       </c>
       <c r="H33" s="11">
-        <v>7595</v>
+        <v>3212383</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="22" customHeight="1">
@@ -1356,7 +1354,7 @@
         <v>19769</v>
       </c>
       <c r="D34" s="12">
-        <v>277500</v>
+        <v>38364</v>
       </c>
       <c r="E34" s="12">
         <v>1139093</v>
@@ -1366,7 +1364,7 @@
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="13">
-        <v>2394</v>
+        <v>383575</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="22" customHeight="1">
@@ -1404,7 +1402,7 @@
       </c>
       <c r="G36" s="12"/>
       <c r="H36" s="13">
-        <v>436</v>
+        <v>15360</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="22" customHeight="1">
@@ -1460,7 +1458,7 @@
       </c>
       <c r="G39" s="12"/>
       <c r="H39" s="13">
-        <v>67</v>
+        <v>73921</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="22" customHeight="1">
@@ -1496,7 +1494,7 @@
         <v>-207962</v>
       </c>
       <c r="D42" s="12">
-        <v>411842</v>
+        <v>38364</v>
       </c>
       <c r="E42" s="12">
         <v>445649</v>
@@ -1506,7 +1504,7 @@
       </c>
       <c r="G42" s="12"/>
       <c r="H42" s="13">
-        <v>125416</v>
+        <v>294294</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="22" customHeight="1">
@@ -1528,7 +1526,7 @@
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
       <c r="D44" s="12">
-        <v>257254</v>
+        <v>10492</v>
       </c>
       <c r="E44" s="12">
         <v>635402</v>
@@ -1540,7 +1538,7 @@
         <v>-2696184</v>
       </c>
       <c r="H44" s="13">
-        <v>839</v>
+        <v>2828808</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="22" customHeight="1">
@@ -1550,7 +1548,7 @@
       <c r="B45" s="12"/>
       <c r="C45" s="12"/>
       <c r="D45" s="12">
-        <v>15509</v>
+        <v>2394</v>
       </c>
       <c r="E45" s="12">
         <v>252221</v>
@@ -1562,7 +1560,7 @@
         <v>-144736</v>
       </c>
       <c r="H45" s="13">
-        <v>49115</v>
+        <v>411842</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="22" customHeight="1">
@@ -1571,7 +1569,9 @@
       </c>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
+      <c r="D46" s="12">
+        <v>436</v>
+      </c>
       <c r="E46" s="12">
         <v>13707</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>-1435836</v>
       </c>
       <c r="H46" s="13">
-        <v>3212383</v>
+        <v>257254</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="22" customHeight="1">
@@ -1603,9 +1603,7 @@
       </c>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
-      <c r="D48" s="12">
-        <v>78836</v>
-      </c>
+      <c r="D48" s="12"/>
       <c r="E48" s="12">
         <v>104973</v>
       </c>
@@ -1616,7 +1614,7 @@
         <v>-287027</v>
       </c>
       <c r="H48" s="13">
-        <v>73921</v>
+        <v>78836</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="22" customHeight="1">
@@ -1642,7 +1640,7 @@
       <c r="B50" s="12"/>
       <c r="C50" s="12"/>
       <c r="D50" s="12">
-        <v>1787867</v>
+        <v>7595</v>
       </c>
       <c r="E50" s="12">
         <v>151126</v>
@@ -1654,7 +1652,7 @@
         <v>190769</v>
       </c>
       <c r="H50" s="13">
-        <v>75462</v>
+        <v>277500</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="22" customHeight="1">
@@ -1674,7 +1672,7 @@
         <v>-672185</v>
       </c>
       <c r="H51" s="13">
-        <v>383575</v>
+        <v>1787867</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="22" customHeight="1">
@@ -1683,7 +1681,9 @@
       </c>
       <c r="B52" s="12"/>
       <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
+      <c r="D52" s="12">
+        <v>67</v>
+      </c>
       <c r="E52" s="12">
         <v>40801</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>-297208</v>
       </c>
       <c r="H52" s="13">
-        <v>15360</v>
+        <v>15509</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="22" customHeight="1">
